--- a/play.xlsx
+++ b/play.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>Match No</t>
   </si>
@@ -416,6 +416,9 @@
     <t>and The Winner IS BRAZIL</t>
   </si>
   <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
     <t>Points</t>
   </si>
   <si>
@@ -728,9 +731,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -741,6 +741,9 @@
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2354,8 +2357,12 @@
       <c r="D11" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
       <c r="G11" t="s" s="13">
         <v>52</v>
       </c>
@@ -2389,8 +2396,12 @@
       <c r="D12" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
       <c r="G12" t="s" s="13">
         <v>56</v>
       </c>
@@ -2426,8 +2437,12 @@
       <c r="D13" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
       <c r="G13" t="s" s="13">
         <v>62</v>
       </c>
@@ -2435,7 +2450,7 @@
         <v>53</v>
       </c>
       <c r="I13" s="22"/>
-      <c r="J13" t="s" s="27">
+      <c r="J13" t="s" s="26">
         <v>63</v>
       </c>
       <c r="K13" s="4"/>
@@ -2463,8 +2478,12 @@
       <c r="D14" t="s" s="13">
         <v>66</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
       <c r="G14" t="s" s="13">
         <v>67</v>
       </c>
@@ -2472,7 +2491,7 @@
         <v>57</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" t="s" s="27">
+      <c r="J14" t="s" s="26">
         <v>68</v>
       </c>
       <c r="K14" s="4"/>
@@ -2500,8 +2519,12 @@
       <c r="D15" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="14">
+        <v>3</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
       <c r="G15" t="s" s="13">
         <v>71</v>
       </c>
@@ -2509,7 +2532,7 @@
         <v>72</v>
       </c>
       <c r="I15" s="22"/>
-      <c r="J15" t="s" s="28">
+      <c r="J15" t="s" s="27">
         <v>73</v>
       </c>
       <c r="K15" s="4"/>
@@ -2537,8 +2560,12 @@
       <c r="D16" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
       <c r="G16" t="s" s="13">
         <v>77</v>
       </c>
@@ -2546,7 +2573,7 @@
         <v>72</v>
       </c>
       <c r="I16" s="20"/>
-      <c r="J16" t="s" s="29">
+      <c r="J16" t="s" s="28">
         <v>78</v>
       </c>
       <c r="K16" s="22"/>
@@ -2574,8 +2601,12 @@
       <c r="D17" t="s" s="13">
         <v>80</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
       <c r="G17" t="s" s="13">
         <v>81</v>
       </c>
@@ -2583,7 +2614,7 @@
         <v>82</v>
       </c>
       <c r="I17" s="20"/>
-      <c r="J17" t="s" s="29">
+      <c r="J17" t="s" s="28">
         <v>83</v>
       </c>
       <c r="K17" s="22"/>
@@ -2611,8 +2642,12 @@
       <c r="D18" t="s" s="13">
         <v>85</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>2</v>
+      </c>
       <c r="G18" t="s" s="13">
         <v>86</v>
       </c>
@@ -2620,7 +2655,7 @@
         <v>82</v>
       </c>
       <c r="I18" s="22"/>
-      <c r="J18" t="s" s="30">
+      <c r="J18" t="s" s="29">
         <v>87</v>
       </c>
       <c r="K18" s="4"/>
@@ -2648,8 +2683,12 @@
       <c r="D19" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="14">
+        <v>3</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
       <c r="G19" t="s" s="13">
         <v>20</v>
       </c>
@@ -2685,8 +2724,8 @@
       <c r="D20" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
       <c r="G20" t="s" s="13">
         <v>24</v>
       </c>
@@ -2694,7 +2733,7 @@
         <v>26</v>
       </c>
       <c r="I20" s="22"/>
-      <c r="J20" t="s" s="27">
+      <c r="J20" t="s" s="26">
         <v>91</v>
       </c>
       <c r="K20" s="4"/>
@@ -2722,8 +2761,8 @@
       <c r="D21" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
       <c r="G21" t="s" s="13">
         <v>9</v>
       </c>
@@ -2757,8 +2796,8 @@
       <c r="D22" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
       <c r="G22" t="s" s="13">
         <v>31</v>
       </c>
@@ -2766,7 +2805,7 @@
         <v>26</v>
       </c>
       <c r="I22" s="22"/>
-      <c r="J22" t="s" s="27">
+      <c r="J22" t="s" s="26">
         <v>94</v>
       </c>
       <c r="K22" s="4"/>
@@ -2794,8 +2833,8 @@
       <c r="D23" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" t="s" s="13">
         <v>41</v>
       </c>
@@ -2829,8 +2868,8 @@
       <c r="D24" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
       <c r="G24" t="s" s="13">
         <v>15</v>
       </c>
@@ -2864,8 +2903,8 @@
       <c r="D25" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
       <c r="G25" t="s" s="13">
         <v>46</v>
       </c>
@@ -2899,8 +2938,8 @@
       <c r="D26" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
       <c r="G26" t="s" s="13">
         <v>51</v>
       </c>
@@ -2908,7 +2947,7 @@
         <v>53</v>
       </c>
       <c r="I26" s="22"/>
-      <c r="J26" t="s" s="27">
+      <c r="J26" t="s" s="26">
         <v>99</v>
       </c>
       <c r="K26" s="4"/>
@@ -2936,8 +2975,8 @@
       <c r="D27" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
       <c r="G27" t="s" s="13">
         <v>36</v>
       </c>
@@ -2971,8 +3010,8 @@
       <c r="D28" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
       <c r="G28" t="s" s="13">
         <v>62</v>
       </c>
@@ -3006,8 +3045,8 @@
       <c r="D29" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
       <c r="G29" t="s" s="13">
         <v>76</v>
       </c>
@@ -3041,8 +3080,8 @@
       <c r="D30" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
       <c r="G30" t="s" s="13">
         <v>66</v>
       </c>
@@ -3076,8 +3115,8 @@
       <c r="D31" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
       <c r="G31" t="s" s="13">
         <v>56</v>
       </c>
@@ -3111,8 +3150,8 @@
       <c r="D32" t="s" s="13">
         <v>77</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
       <c r="G32" t="s" s="13">
         <v>71</v>
       </c>
@@ -3146,8 +3185,8 @@
       <c r="D33" t="s" s="13">
         <v>86</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
       <c r="G33" t="s" s="13">
         <v>81</v>
       </c>
@@ -3181,8 +3220,8 @@
       <c r="D34" t="s" s="13">
         <v>80</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
       <c r="G34" t="s" s="13">
         <v>85</v>
       </c>
@@ -3216,8 +3255,8 @@
       <c r="D35" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
       <c r="G35" t="s" s="13">
         <v>8</v>
       </c>
@@ -3251,8 +3290,8 @@
       <c r="D36" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" t="s" s="13">
         <v>20</v>
       </c>
@@ -3286,8 +3325,8 @@
       <c r="D37" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" t="s" s="13">
         <v>30</v>
       </c>
@@ -3321,8 +3360,8 @@
       <c r="D38" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" t="s" s="13">
         <v>24</v>
       </c>
@@ -3356,8 +3395,8 @@
       <c r="D39" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
       <c r="G39" t="s" s="13">
         <v>14</v>
       </c>
@@ -3391,8 +3430,8 @@
       <c r="D40" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
       <c r="G40" t="s" s="13">
         <v>41</v>
       </c>
@@ -3426,8 +3465,8 @@
       <c r="D41" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" t="s" s="13">
         <v>35</v>
       </c>
@@ -3461,8 +3500,8 @@
       <c r="D42" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
       <c r="G42" t="s" s="13">
         <v>46</v>
       </c>
@@ -3496,8 +3535,8 @@
       <c r="D43" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
       <c r="G43" t="s" s="13">
         <v>55</v>
       </c>
@@ -3531,8 +3570,8 @@
       <c r="D44" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
       <c r="G44" t="s" s="13">
         <v>66</v>
       </c>
@@ -3566,8 +3605,8 @@
       <c r="D45" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
       <c r="G45" t="s" s="13">
         <v>61</v>
       </c>
@@ -3601,8 +3640,8 @@
       <c r="D46" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
       <c r="G46" t="s" s="13">
         <v>51</v>
       </c>
@@ -3636,8 +3675,8 @@
       <c r="D47" t="s" s="13">
         <v>86</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
       <c r="G47" t="s" s="13">
         <v>80</v>
       </c>
@@ -3671,8 +3710,8 @@
       <c r="D48" t="s" s="13">
         <v>81</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
       <c r="G48" t="s" s="13">
         <v>85</v>
       </c>
@@ -3706,8 +3745,8 @@
       <c r="D49" t="s" s="13">
         <v>77</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
       <c r="G49" t="s" s="13">
         <v>70</v>
       </c>
@@ -3741,8 +3780,8 @@
       <c r="D50" t="s" s="13">
         <v>71</v>
       </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
       <c r="G50" t="s" s="13">
         <v>76</v>
       </c>
@@ -6065,8 +6104,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -6160,7 +6199,9 @@
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="K3" t="s" s="24">
+        <v>128</v>
+      </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
@@ -6674,7 +6715,7 @@
       </c>
       <c r="K20" s="4"/>
       <c r="L20" t="s" s="24">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
@@ -11854,8 +11895,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -16126,8 +16167,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -16245,7 +16286,9 @@
       <c r="J3" t="s" s="16">
         <v>125</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" t="s" s="34">
+        <v>126</v>
+      </c>
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -20396,8 +20439,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -20459,7 +20502,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s" s="44">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
@@ -21864,8 +21907,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -26136,8 +26179,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -27999,7 +28042,7 @@
       <c r="C48" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="14">
         <v>1</v>
       </c>
@@ -30406,8 +30449,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -30490,7 +30533,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s" s="59">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -58233,8 +58276,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -62505,8 +62548,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
